--- a/medicine/Enfance/La_Terre_du_magicien/La_Terre_du_magicien.xlsx
+++ b/medicine/Enfance/La_Terre_du_magicien/La_Terre_du_magicien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Terre du magicien est un roman fantastique pour jeunes adultes de Lev Grossman, publié en 2014 par Viking Press, suite du Roi magicien et troisième livre de la trilogie Les Magiciens. Il continue l'histoire de Quentin Coldwater, en l'entrelaçant avec l'histoire de plusieurs de ses amis qui cherchent à sauver le royaume magique de Fillory.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été expulsé du royaume magique de Fillory, le magicien Quentin Coldwater retourne à son alma mater , le collège magique de Brakebills, en tant que nouveau professeur. Là, on lui donne enfin une discipline, la réparation de petits objets (réparations mineures), et passe son temps libre à étudier un ancien sort trouvé lors de ses voyages à travers les Pays-Bas, l'espace magique entre les mondes. Vers la fin de son premier semestre, il sauve une étudiante, Plum, après une farce magique qui a mal tourné, révélant à Quentin qu'Alice, désormais niffin (un esprit malveillant de pure magie), est toujours en vie. Le doyen de l'école expulse Plum pour cette farce et renvoie Quentin pour n'avoir pas suivi le protocole lors de sa tentative de sauvetage.
 Ayant besoin d'argent, Quentin et Plum rejoignent indépendamment un gang de voleurs magiciens dirigé par un oiseau parlant avec l'intention de voler une mystérieuse valise. Ils sont interrompus pendant le braquage par un groupe de voleurs concurrents aux mains dorées translucides ; une bataille et une poursuite s'ensuivent, et les survivants se dissolvent. La valise contient un vieux livre et une lame capable de tuer un dieu, et l'une des membres de la bande révèle qu'elle est Asmodée lorsqu'elle prend la lame pour tuer Reynard le Renard ; Quentin et Plum prennent le livre. Écrit pour raconter sa version de l'histoire avant sa mort pendant la Seconde Guerre mondiale, le livre est le mémoire de Rupert Chatwin et raconte comment sa famille a découvert et habité Fillory, puis comment il a accompagné Martin alors qu'il vendait son humanité à Umber. pouvoir rester à Fillory.
@@ -548,7 +562,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quentin Makepeace Coldwater — Le principal protagoniste du roman. Lorsque le roman commence, il a été expulsé de Fillory et approche la trentaine.
 Plum Purchas - Étudiant expulsé de Brakebills et dernier descendant vivant des Chatwin.
@@ -585,11 +601,13 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Terre du magicien a reçu des critiques positives, avec une note de 4,2/5 sur GoodReads[1].  La critique de The , affirmant qu'il "parvient à être une finale satisfaisante à la série, tout en ajoutant de la profondeur et de l'ombre au monde - magique et autre - des livres précédents".  [2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Terre du magicien a reçu des critiques positives, avec une note de 4,2/5 sur GoodReads.  La critique de The , affirmant qu'il "parvient à être une finale satisfaisante à la série, tout en ajoutant de la profondeur et de l'ombre au monde - magique et autre - des livres précédents".  
 La critique de The AV Club donné au roman la note de A, le qualifiant de «parvient à être une finale satisfaisante à la trilogie, tout en ajoutant de la profondeur et de l'ombre au monde - magique et autre - des livres précédents.»
-Le New York Times l'a qualifié de « roman richement imaginé et continuellement surprenant », et a déclaré que c'était « le livre le plus fort de la série de Grossman. Il offre non seulement une conclusion satisfaisante aux quêtes de Quentin Coldwater, terrestres et autres, mais aussi considère les questions complexes sur l'identité et l'individualité aussi profondes que divertissantes[3].
+Le New York Times l'a qualifié de « roman richement imaginé et continuellement surprenant », et a déclaré que c'était « le livre le plus fort de la série de Grossman. Il offre non seulement une conclusion satisfaisante aux quêtes de Quentin Coldwater, terrestres et autres, mais aussi considère les questions complexes sur l'identité et l'individualité aussi profondes que divertissantes.
 </t>
         </is>
       </c>
